--- a/dataBase/krasnoludAncestry.xlsx
+++ b/dataBase/krasnoludAncestry.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB3519-0006-4B1D-972B-3366CB24D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44571E01-553E-41C7-913B-91D6BCF76A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="768" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="krasnoludAncestry" sheetId="1" r:id="rId1"/>
-    <sheet name="Przeszłość" sheetId="2" r:id="rId2"/>
-    <sheet name="Osobowość" sheetId="3" r:id="rId3"/>
-    <sheet name="Wygląd" sheetId="4" r:id="rId4"/>
-    <sheet name="Wiek" sheetId="5" r:id="rId5"/>
-    <sheet name="Budowa Ciała" sheetId="7" r:id="rId6"/>
-    <sheet name="Znienawidzone Stworzenia" sheetId="9" r:id="rId7"/>
+    <sheet name="Wiek" sheetId="5" r:id="rId2"/>
+    <sheet name="Budowa Ciała" sheetId="7" r:id="rId3"/>
+    <sheet name="Wygląd" sheetId="3" r:id="rId4"/>
+    <sheet name="Znienawidzone Stworzenia" sheetId="9" r:id="rId5"/>
+    <sheet name="Przeszłość" sheetId="2" r:id="rId6"/>
+    <sheet name="Osobowość" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>0.5</t>
   </si>
@@ -144,48 +144,9 @@
     <t>Mówisz w dodatkowym dowolnym jezyku</t>
   </si>
   <si>
-    <t>Nóż</t>
-  </si>
-  <si>
-    <t>Kosmyk Włosów Królowej Faerie</t>
-  </si>
-  <si>
-    <t>Szlachecki Sygnet</t>
-  </si>
-  <si>
-    <t>1 punkt szaleństwa</t>
-  </si>
-  <si>
     <t>1 punkt splugawienia</t>
   </si>
   <si>
-    <t>Jesteś zbirem i lubisz nękać słabszych od siebie.</t>
-  </si>
-  <si>
-    <t>Lubisz przemoc, zwłaszcza bezsensowną.</t>
-  </si>
-  <si>
-    <t>Starasz się porzucić umiłowanie brudu typowe dla twojego ludu i czynić na świecie dobro.</t>
-  </si>
-  <si>
-    <t>Uwielbiasz płatać innym złośliwe figle. Ich niedola bawi cię do rozpuku!</t>
-  </si>
-  <si>
-    <t>Martwisz się tylko o siebie. Do diabła z innymi!</t>
-  </si>
-  <si>
-    <t>Ty tylko starasz się przeżyć!</t>
-  </si>
-  <si>
-    <t>Twój lud nie zasługiwał na wygnanie. Wierzysz, że odnajdziecie swoje miejsce w świecie i udowodnicie tym przebrzydłym elfom, że się myliły.</t>
-  </si>
-  <si>
-    <t>Żyjesz, by służyć tym silnym i wpływowym.</t>
-  </si>
-  <si>
-    <t>Swoimi czynami chcesz sprawić, że twój lud wróci do łask Królowej Faerie.</t>
-  </si>
-  <si>
     <t>Dziecko, 20 lat lub mniej</t>
   </si>
   <si>
@@ -355,18 +316,62 @@
   </si>
   <si>
     <t>Nie jesteś szczególnie przywiązany do krasnoludzkich tradycji. Nadszedł czas, by twój lud opuścił zakurzone jaskinie i zaczął budować swą przyszłość gdzieś indziej.</t>
+  </si>
+  <si>
+    <t>Wyglądasz jak maszkara, prawdopodobnie przez
+trudy życia i liczne spotkania z niebezpieczeństwem.
+Twoja twarz to jedna wielka blizna, pewnie brakuje ci również ucha, oka czy nosa. Masz też jakiś
+nietypowy nawyk, na przykład wbijanie ćwieków we
+własną czaszkę lub nacieranie skóry sadłem trolla.</t>
+  </si>
+  <si>
+    <t>Masz kilka ciekawych cech, które sprawiają, że
+wyglądasz jak naprawdę paskudny zakapior. Brud
+z kopalni, wszy we włosach, skóra poorana bliznami
+czy też ostry zapach wymiocin – wszystko to składa
+się na twój wyjątkowy styl.</t>
+  </si>
+  <si>
+    <t>Wyglądasz jak typowy krasnolud – krępy, włochaty,
+ale zadbany.</t>
+  </si>
+  <si>
+    <t>Twój wygląd jest dla ciebie powodem do dumy.
+Często się myjesz, a swój zarost nacierasz olejkami,
+zaplatasz i zdobisz pierścieniami.</t>
+  </si>
+  <si>
+    <t>Jak na krasnoluda jesteś całkiem pociągający. Masz
+szlachetne rysy twarzy, głęboki głos i dobrze się nosisz. Twój wygląd jest dla ciebie powodem do dumy</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,39 +465,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -775,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,340 +930,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C835C-BECA-4F8C-A233-A9EE9639DEEB}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11F06-6C34-4B96-A0EB-8272E8FEDC76}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8480B0-5918-48AA-B46C-6EB33A4C5A54}">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,245 +1005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11F06-6C34-4B96-A0EB-8272E8FEDC76}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667A7402-EBD6-4409-993E-3F477E26BC07}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1530,47 +1028,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>65</v>
+      <c r="A3" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1578,11 +1076,11 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1094,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8480B0-5918-48AA-B46C-6EB33A4C5A54}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1611,7 +1225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1619,122 +1233,487 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>79</v>
+      <c r="A2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>75</v>
+      <c r="A10" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>77</v>
+      <c r="A11" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C835C-BECA-4F8C-A233-A9EE9639DEEB}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataBase/krasnoludAncestry.xlsx
+++ b/dataBase/krasnoludAncestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44571E01-553E-41C7-913B-91D6BCF76A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB193D-367F-440E-B6F5-F0E15DA8251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="768" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="krasnoludAncestry" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>0.5</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>2k6 miedziaków</t>
-  </si>
-  <si>
-    <t>Elifcki</t>
   </si>
   <si>
     <t>Utrzymujesz się z pracy w swojej profesji.</t>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>16-18</t>
+  </si>
+  <si>
+    <t>Krasnoludzki</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,12 +907,15 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,23 +959,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,7 +983,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1032,15 +1035,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1048,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1064,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1080,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,10 +1121,10 @@
     </row>
     <row r="2" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
@@ -1129,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,31 +1140,31 @@
         <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,18 +1237,18 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1253,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1261,23 +1264,23 @@
         <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1285,7 +1288,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1293,23 +1296,23 @@
         <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1383,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1418,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1442,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,10 +1477,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1512,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,7 +1523,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1528,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1539,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1583,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1591,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,7 +1602,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1610,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1618,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1634,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1647,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
